--- a/data/trans_orig/P32D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32D_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>85466</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67777</v>
+        <v>66555</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108330</v>
+        <v>109974</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2425535291136807</v>
+        <v>0.2425535291136809</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1923535391128549</v>
+        <v>0.1888839273811648</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3074436813568548</v>
+        <v>0.3121099191331618</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -762,19 +762,19 @@
         <v>67417</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56269</v>
+        <v>55925</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>78191</v>
+        <v>78428</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3921388195328748</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3272961369564185</v>
+        <v>0.3252939119447807</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4548081861851354</v>
+        <v>0.4561833821146899</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -783,19 +783,19 @@
         <v>152883</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>131394</v>
+        <v>132095</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>177548</v>
+        <v>177583</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2916054980988081</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2506179221487887</v>
+        <v>0.2519555213632591</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3386512979466418</v>
+        <v>0.3387188363925633</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>136062</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117213</v>
+        <v>117305</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>157244</v>
+        <v>156633</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3861458586688034</v>
+        <v>0.3861458586688036</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3326519662652709</v>
+        <v>0.3329154978235097</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4462629673626109</v>
+        <v>0.4445280131856905</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -833,19 +833,19 @@
         <v>61417</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50372</v>
+        <v>51084</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73074</v>
+        <v>72679</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3572375896376563</v>
+        <v>0.3572375896376564</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.292994252977386</v>
+        <v>0.2971387376778115</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4250449305847915</v>
+        <v>0.4227488027769922</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>243</v>
@@ -854,19 +854,19 @@
         <v>197478</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>174842</v>
+        <v>174479</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>221657</v>
+        <v>221570</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3766662667118954</v>
+        <v>0.3766662667118955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3334904691161931</v>
+        <v>0.3327989460462749</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.422783795232729</v>
+        <v>0.4226179656103329</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>81947</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>63284</v>
+        <v>65124</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101122</v>
+        <v>101525</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2325687310743605</v>
+        <v>0.2325687310743606</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1796010148514283</v>
+        <v>0.1848242362975965</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2869860440447682</v>
+        <v>0.2881309682895786</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -904,19 +904,19 @@
         <v>29769</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20576</v>
+        <v>20690</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40931</v>
+        <v>39162</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1731557578543243</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.119680597678217</v>
+        <v>0.1203486819144821</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2380827491113963</v>
+        <v>0.2277931385020089</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>107</v>
@@ -925,19 +925,19 @@
         <v>111717</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>91383</v>
+        <v>90566</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>134547</v>
+        <v>133358</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.213086044564635</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1743013390865684</v>
+        <v>0.1727436852283877</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2566323598578485</v>
+        <v>0.2543647436380251</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>13905</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8286</v>
+        <v>7430</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23579</v>
+        <v>22389</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03946177602650073</v>
+        <v>0.03946177602650074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0235148655913116</v>
+        <v>0.02108676277587751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06691681331366219</v>
+        <v>0.06354097097759945</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7649</v>
+        <v>7425</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01292450910941382</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04448963260928269</v>
+        <v>0.04319119502225195</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -996,19 +996,19 @@
         <v>16127</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9631</v>
+        <v>9677</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25521</v>
+        <v>25003</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03075968245754667</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01837070023568457</v>
+        <v>0.01845805396503295</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04867814838660846</v>
+        <v>0.04769075792661967</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>15321</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8726</v>
+        <v>9402</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25047</v>
+        <v>26454</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04348191407503951</v>
+        <v>0.04348191407503953</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02476388992170494</v>
+        <v>0.02668346498480795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07108405720588663</v>
+        <v>0.07507786453839406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -1046,19 +1046,19 @@
         <v>5612</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2050</v>
+        <v>1983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12119</v>
+        <v>11912</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0326420261105904</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01192504936405188</v>
+        <v>0.01153325806122009</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07049260670582191</v>
+        <v>0.06928516695123554</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -1067,19 +1067,19 @@
         <v>20933</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12878</v>
+        <v>13288</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>31159</v>
+        <v>31263</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03992730087246898</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02456358211846467</v>
+        <v>0.02534576931133944</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05943174271161558</v>
+        <v>0.05963049752519337</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>9974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3926</v>
+        <v>3861</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>25689</v>
+        <v>24610</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02830781457462894</v>
+        <v>0.02830781457462895</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0111413128698514</v>
+        <v>0.01095849535655346</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07290656638683499</v>
+        <v>0.06984256909287002</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1117,19 +1117,19 @@
         <v>3144</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>765</v>
+        <v>907</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7735</v>
+        <v>7199</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01828577572980055</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004447438620933476</v>
+        <v>0.005275621885599052</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04499214568811823</v>
+        <v>0.04187352467462419</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1138,19 +1138,19 @@
         <v>13118</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6968</v>
+        <v>6352</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30787</v>
+        <v>30251</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02502139023967853</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0132911710506537</v>
+        <v>0.01211564273806236</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05872239248275192</v>
+        <v>0.05770079278197567</v>
       </c>
     </row>
     <row r="10">
@@ -1167,19 +1167,19 @@
         <v>2411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>704</v>
+        <v>644</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6435</v>
+        <v>6067</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.006843855922017097</v>
+        <v>0.0068438559220171</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001998615880118016</v>
+        <v>0.001826827833630661</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01826248273557329</v>
+        <v>0.01721697627133573</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1188,19 +1188,19 @@
         <v>2341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7251</v>
+        <v>7360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01361552202533972</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003778978410223005</v>
+        <v>0.003926893864632254</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04217824336297363</v>
+        <v>0.04281101560472821</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1209,19 +1209,19 @@
         <v>4752</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2040</v>
+        <v>1965</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10148</v>
+        <v>9868</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009064418884772146</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003891229243157778</v>
+        <v>0.003747173980592882</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01935635725753766</v>
+        <v>0.01882222702392892</v>
       </c>
     </row>
     <row r="11">
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9826</v>
+        <v>8905</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.007107010596381941</v>
+        <v>0.007107010596381943</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02788745480203467</v>
+        <v>0.02527350519266428</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8631</v>
+        <v>8793</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004776481555901058</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0164621607612628</v>
+        <v>0.01677191117383384</v>
       </c>
     </row>
     <row r="12">
@@ -1301,19 +1301,19 @@
         <v>4767</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1634</v>
+        <v>1933</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10160</v>
+        <v>10346</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.01352950994858687</v>
+        <v>0.01352950994858688</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.004636718558451895</v>
+        <v>0.005487232200497175</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02883391012490865</v>
+        <v>0.02936148255090702</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>4767</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1896</v>
+        <v>1734</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10056</v>
+        <v>9752</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00909291661429403</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003616691137780422</v>
+        <v>0.003307276365500195</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01918045935473509</v>
+        <v>0.01860018541586919</v>
       </c>
     </row>
     <row r="13">
@@ -1439,19 +1439,19 @@
         <v>96204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>76404</v>
+        <v>76027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119305</v>
+        <v>117886</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1929848287990574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.153264539423205</v>
+        <v>0.1525100355567791</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2393246253436159</v>
+        <v>0.23647850726038</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>110</v>
@@ -1460,19 +1460,19 @@
         <v>78555</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65875</v>
+        <v>66265</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92898</v>
+        <v>91989</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3508669050547219</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2942316991125236</v>
+        <v>0.2959769701950696</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4149311150105334</v>
+        <v>0.410871264465149</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>194</v>
@@ -1481,19 +1481,19 @@
         <v>174759</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>149088</v>
+        <v>153362</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>199817</v>
+        <v>199512</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2419162529036225</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2063805488854672</v>
+        <v>0.2122965033728792</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2766032269731311</v>
+        <v>0.2761814613727872</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>220249</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>196237</v>
+        <v>195186</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>249872</v>
+        <v>244098</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4418163187828996</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3936483993050703</v>
+        <v>0.391539633731858</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5012395881716212</v>
+        <v>0.489656446479374</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>96</v>
@@ -1531,19 +1531,19 @@
         <v>72901</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>60622</v>
+        <v>60611</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>86034</v>
+        <v>86336</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3256129580149382</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2707702676243812</v>
+        <v>0.2707211854856553</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3842760716843684</v>
+        <v>0.3856237339551818</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>298</v>
@@ -1552,19 +1552,19 @@
         <v>293149</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>264881</v>
+        <v>264836</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>320304</v>
+        <v>322946</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4058021234862444</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3666707349407636</v>
+        <v>0.366608804107769</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4433918566770867</v>
+        <v>0.447048932690323</v>
       </c>
     </row>
     <row r="16">
@@ -1581,19 +1581,19 @@
         <v>104622</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84481</v>
+        <v>85003</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126810</v>
+        <v>127195</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2098703822991482</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1694673696133096</v>
+        <v>0.1705146595466028</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2543783788994828</v>
+        <v>0.2551518400571642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -1602,19 +1602,19 @@
         <v>37895</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28935</v>
+        <v>26753</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51208</v>
+        <v>49062</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1692613825260393</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1292411840777734</v>
+        <v>0.1194950937566946</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2287213551637859</v>
+        <v>0.2191370100057964</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>132</v>
@@ -1623,19 +1623,19 @@
         <v>142517</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>120892</v>
+        <v>118906</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>165782</v>
+        <v>167951</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1972846839254933</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1673492774454753</v>
+        <v>0.1645995519429114</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2294891142340348</v>
+        <v>0.2324917319633725</v>
       </c>
     </row>
     <row r="17">
@@ -1652,19 +1652,19 @@
         <v>38583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27612</v>
+        <v>27321</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55959</v>
+        <v>54091</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07739794693306359</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05538913804914167</v>
+        <v>0.05480547757105245</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1122533815587539</v>
+        <v>0.1085065649409628</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1673,19 +1673,19 @@
         <v>9343</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4707</v>
+        <v>4880</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17123</v>
+        <v>16778</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04173240556791815</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02102507618665123</v>
+        <v>0.02179784235910764</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07648243097595554</v>
+        <v>0.07494126979761953</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -1694,19 +1694,19 @@
         <v>47927</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35852</v>
+        <v>35154</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64865</v>
+        <v>63949</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06634434432125841</v>
+        <v>0.06634434432125839</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04962896641322862</v>
+        <v>0.04866301657010567</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08979153027274604</v>
+        <v>0.08852303999827185</v>
       </c>
     </row>
     <row r="18">
@@ -1723,19 +1723,19 @@
         <v>18486</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9002</v>
+        <v>9275</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>32189</v>
+        <v>32975</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.03708187255329852</v>
+        <v>0.03708187255329851</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01805847772834578</v>
+        <v>0.01860617260462946</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06457122036492828</v>
+        <v>0.06614684703290467</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -1744,19 +1744,19 @@
         <v>11598</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6525</v>
+        <v>6476</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19194</v>
+        <v>20199</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05180138754309559</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02914420861076456</v>
+        <v>0.0289239272724086</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08573002561523597</v>
+        <v>0.09021778291233271</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -1765,19 +1765,19 @@
         <v>30083</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>19102</v>
+        <v>17562</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48388</v>
+        <v>45320</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04164380160604887</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02644219324882349</v>
+        <v>0.02431130801408023</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06698279089265785</v>
+        <v>0.06273572897372931</v>
       </c>
     </row>
     <row r="19">
@@ -1794,19 +1794,19 @@
         <v>8903</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3983</v>
+        <v>4151</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16966</v>
+        <v>16569</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01785942177531002</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007989235350078</v>
+        <v>0.008327697068385967</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03403375431696723</v>
+        <v>0.03323797764152442</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1815,19 +1815,19 @@
         <v>12050</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6492</v>
+        <v>6445</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20881</v>
+        <v>20670</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05382123226612002</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02899484507976266</v>
+        <v>0.02878596697869001</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09326462044294004</v>
+        <v>0.09232213117796186</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -1836,19 +1836,19 @@
         <v>20953</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12672</v>
+        <v>12990</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32732</v>
+        <v>33066</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0290048452611548</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01754223964848341</v>
+        <v>0.01798144432073231</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04531017679201707</v>
+        <v>0.04577326304362196</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>3270</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1048</v>
+        <v>797</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8775</v>
+        <v>7889</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.006559969320947797</v>
+        <v>0.006559969320947798</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002101516633937009</v>
+        <v>0.001599388456121988</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01760266625185679</v>
+        <v>0.01582485877114172</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1899,19 +1899,19 @@
         <v>3270</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1135</v>
+        <v>768</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8908</v>
+        <v>8127</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004526878240764363</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001571176294942038</v>
+        <v>0.001063548914286101</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0123316158233446</v>
+        <v>0.01125053863323728</v>
       </c>
     </row>
     <row r="21">
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9049</v>
+        <v>11568</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.005408850225853624</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01815125006939723</v>
+        <v>0.02320530299548932</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>9954</v>
+        <v>9900</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.003732518430655178</v>
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01377882123562783</v>
+        <v>0.01370498201389844</v>
       </c>
     </row>
     <row r="22">
@@ -1991,19 +1991,19 @@
         <v>5494</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2145</v>
+        <v>2003</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11978</v>
+        <v>12614</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01102040931042119</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004302618137087287</v>
+        <v>0.004017651225294206</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02402843261814851</v>
+        <v>0.02530266380486708</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4980</v>
+        <v>5537</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006903729027166827</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02224366321360204</v>
+        <v>0.02472907177550587</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -2033,19 +2033,19 @@
         <v>7039</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3038</v>
+        <v>3052</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13894</v>
+        <v>14308</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.009744551824758097</v>
+        <v>0.009744551824758099</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.004204829262350731</v>
+        <v>0.004224576975507657</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01923351183506967</v>
+        <v>0.01980605383535082</v>
       </c>
     </row>
     <row r="23">
@@ -2137,19 +2137,19 @@
         <v>68785</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>54651</v>
+        <v>53508</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>89225</v>
+        <v>88765</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1908488828239498</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1516315756337772</v>
+        <v>0.1484604128273913</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2475608726188035</v>
+        <v>0.2462823479930945</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>98</v>
@@ -2158,19 +2158,19 @@
         <v>79792</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>65681</v>
+        <v>66124</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>93244</v>
+        <v>93933</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.398115349264203</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3277083843652571</v>
+        <v>0.3299183580606895</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4652311120999734</v>
+        <v>0.4686666384659657</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>159</v>
@@ -2179,19 +2179,19 @@
         <v>148578</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>126150</v>
+        <v>126579</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>171633</v>
+        <v>173422</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2649185148619285</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2249282210859518</v>
+        <v>0.2256934098547219</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3060253957602554</v>
+        <v>0.3092162272812622</v>
       </c>
     </row>
     <row r="25">
@@ -2208,19 +2208,19 @@
         <v>158523</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>136149</v>
+        <v>137683</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>178983</v>
+        <v>182213</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4398321749108189</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3777540844998036</v>
+        <v>0.3820084368410505</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4965992187640855</v>
+        <v>0.5055612125752118</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>96</v>
@@ -2229,19 +2229,19 @@
         <v>73934</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62426</v>
+        <v>61218</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>87302</v>
+        <v>87506</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3688847703422314</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3114677218316489</v>
+        <v>0.3054422555611105</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4355835176037529</v>
+        <v>0.4366024502213852</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>232</v>
@@ -2250,19 +2250,19 @@
         <v>232458</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>207731</v>
+        <v>204546</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>258307</v>
+        <v>256567</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4144781065914282</v>
+        <v>0.4144781065914281</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3703893842612612</v>
+        <v>0.3647119219274386</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4605689113635525</v>
+        <v>0.4574658378059383</v>
       </c>
     </row>
     <row r="26">
@@ -2279,19 +2279,19 @@
         <v>71245</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>54817</v>
+        <v>54287</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>90410</v>
+        <v>90431</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1976723619937071</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1520919234299177</v>
+        <v>0.1506212955788074</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.250846456353843</v>
+        <v>0.2509052677201166</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>35</v>
@@ -2300,19 +2300,19 @@
         <v>30052</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>21474</v>
+        <v>21206</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>41157</v>
+        <v>41517</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1499397910323799</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.107143072341011</v>
+        <v>0.105803212681235</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.205350048623361</v>
+        <v>0.2071438237664241</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>93</v>
@@ -2321,19 +2321,19 @@
         <v>101297</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>84023</v>
+        <v>82871</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>125110</v>
+        <v>122900</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.1806144460266235</v>
+        <v>0.1806144460266234</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.149814983660002</v>
+        <v>0.1477613964542437</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2230744956243591</v>
+        <v>0.2191340150122801</v>
       </c>
     </row>
     <row r="27">
@@ -2350,19 +2350,19 @@
         <v>31728</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>20838</v>
+        <v>19564</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>51084</v>
+        <v>48028</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08803188781154514</v>
+        <v>0.08803188781154517</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0578166990215561</v>
+        <v>0.05428261750234425</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1417364677807423</v>
+        <v>0.1332571352652581</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>13</v>
@@ -2371,19 +2371,19 @@
         <v>10399</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>5690</v>
+        <v>5736</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>16990</v>
+        <v>18887</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05188521331895048</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02838796330558135</v>
+        <v>0.02861879132370342</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08477102715100579</v>
+        <v>0.09423414921759882</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>35</v>
@@ -2392,19 +2392,19 @@
         <v>42127</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30027</v>
+        <v>29250</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>61063</v>
+        <v>60609</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.07511435742157802</v>
+        <v>0.075114357421578</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.05353929733159175</v>
+        <v>0.05215344804105453</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1088766305124971</v>
+        <v>0.1080667378661999</v>
       </c>
     </row>
     <row r="28">
@@ -2421,19 +2421,19 @@
         <v>12057</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5748</v>
+        <v>6203</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>22643</v>
+        <v>22275</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03345309981638202</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01594848135604986</v>
+        <v>0.01721085770914487</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06282355855484935</v>
+        <v>0.06180255864436257</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -2442,19 +2442,19 @@
         <v>3851</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>12373</v>
+        <v>12137</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01921479689545451</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003731564794543876</v>
+        <v>0.00360146309275096</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06173500063574473</v>
+        <v>0.06055812240075634</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>13</v>
@@ -2463,19 +2463,19 @@
         <v>15908</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7929</v>
+        <v>8186</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>27284</v>
+        <v>27572</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0283648389109336</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01413751112587603</v>
+        <v>0.0145965216890829</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04864890258342121</v>
+        <v>0.04916165513829155</v>
       </c>
     </row>
     <row r="29">
@@ -2492,19 +2492,19 @@
         <v>14870</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7649</v>
+        <v>8066</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>24605</v>
+        <v>24906</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0412565391673916</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02122199255232997</v>
+        <v>0.02237978220675447</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06826774428088607</v>
+        <v>0.06910440727153136</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4869</v>
+        <v>5697</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.00529026353481265</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02429328386555941</v>
+        <v>0.02842532809735489</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>14</v>
@@ -2534,19 +2534,19 @@
         <v>15930</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8898</v>
+        <v>9157</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>26356</v>
+        <v>26473</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.02840347688657364</v>
+        <v>0.02840347688657363</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0158660911804854</v>
+        <v>0.01632766257903124</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04699283599517163</v>
+        <v>0.04720244015526038</v>
       </c>
     </row>
     <row r="30">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7525</v>
+        <v>6724</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.006669815611968117</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03754740045144365</v>
+        <v>0.03354713530736798</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7393</v>
+        <v>6777</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.002383553869685204</v>
+        <v>0.002383553869685203</v>
       </c>
       <c r="V30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.01318200676905129</v>
+        <v>0.01208435290181045</v>
       </c>
     </row>
     <row r="31">
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4893</v>
+        <v>4754</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002638409443129806</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01357510873176537</v>
+        <v>0.01319107680674954</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2663,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4784</v>
+        <v>4872</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.001695536145897779</v>
+        <v>0.001695536145897778</v>
       </c>
       <c r="V31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.008529849228385476</v>
+        <v>0.008686296201437486</v>
       </c>
     </row>
     <row r="32">
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>7783</v>
+        <v>7694</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006266644033075577</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02159454491262001</v>
+        <v>0.02134747290645444</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7051</v>
+        <v>7994</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.004027169285351714</v>
+        <v>0.004027169285351713</v>
       </c>
       <c r="V32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01257132044208997</v>
+        <v>0.01425437295917304</v>
       </c>
     </row>
     <row r="33">
@@ -2827,19 +2827,19 @@
         <v>101244</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>84670</v>
+        <v>84974</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>120068</v>
+        <v>120758</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2194679133819657</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1835412045486884</v>
+        <v>0.1842002716326212</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2602728480062411</v>
+        <v>0.2617702712499969</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>205</v>
@@ -2848,19 +2848,19 @@
         <v>140209</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>124669</v>
+        <v>122726</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>156704</v>
+        <v>155551</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.4553268950428972</v>
+        <v>0.455326895042897</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4048610827755843</v>
+        <v>0.398550173988258</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.508894162924724</v>
+        <v>0.5051473265890062</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>317</v>
@@ -2869,19 +2869,19 @@
         <v>241453</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>217697</v>
+        <v>216854</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>265085</v>
+        <v>267288</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3138830295572824</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2830014873182833</v>
+        <v>0.2819047733295364</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3446036576413809</v>
+        <v>0.347467448185194</v>
       </c>
     </row>
     <row r="35">
@@ -2898,19 +2898,19 @@
         <v>169986</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>150211</v>
+        <v>147461</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>193240</v>
+        <v>189279</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3684814351948811</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3256165090000924</v>
+        <v>0.3196544059100507</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4188896105283483</v>
+        <v>0.4103041890658485</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>113</v>
@@ -2919,19 +2919,19 @@
         <v>81893</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>68984</v>
+        <v>67305</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>94471</v>
+        <v>96504</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2659463864840158</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2240230927726362</v>
+        <v>0.2185718209521138</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3067927525726284</v>
+        <v>0.3133960795720648</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>304</v>
@@ -2940,19 +2940,19 @@
         <v>251879</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>229143</v>
+        <v>227748</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>278085</v>
+        <v>279136</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3274363222722992</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.297880619938294</v>
+        <v>0.2960674728144793</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3615042096128208</v>
+        <v>0.3628700918375292</v>
       </c>
     </row>
     <row r="36">
@@ -2969,19 +2969,19 @@
         <v>101504</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>82927</v>
+        <v>84137</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>122594</v>
+        <v>122481</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2200326560720917</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.179761538021277</v>
+        <v>0.1823851819030473</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.265749604047806</v>
+        <v>0.265503785994594</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>60</v>
@@ -2990,19 +2990,19 @@
         <v>49695</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>38752</v>
+        <v>39461</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>63082</v>
+        <v>62368</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1613845155622266</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1258474037731325</v>
+        <v>0.1281475674184068</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2048572339765996</v>
+        <v>0.2025372947924159</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>155</v>
@@ -3011,19 +3011,19 @@
         <v>151199</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>129237</v>
+        <v>130493</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>174053</v>
+        <v>173819</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1965556149998737</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1680056193029681</v>
+        <v>0.1696375379524831</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2262643954281587</v>
+        <v>0.2259599409718592</v>
       </c>
     </row>
     <row r="37">
@@ -3040,19 +3040,19 @@
         <v>31062</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20836</v>
+        <v>20848</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>45484</v>
+        <v>45718</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.06733425590028154</v>
+        <v>0.06733425590028155</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.04516706332585589</v>
+        <v>0.04519304866291256</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09859598339430592</v>
+        <v>0.09910453481823463</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -3061,19 +3061,19 @@
         <v>14485</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>8604</v>
+        <v>8773</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>23761</v>
+        <v>23459</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04703968422014219</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02794131032719699</v>
+        <v>0.02849069668792177</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07716187189585573</v>
+        <v>0.07618348375750816</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>46</v>
@@ -3082,19 +3082,19 @@
         <v>45547</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>32858</v>
+        <v>33161</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>60229</v>
+        <v>62406</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05921027296176774</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.04271419744145076</v>
+        <v>0.04310793319737666</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07829578602108431</v>
+        <v>0.08112578563648422</v>
       </c>
     </row>
     <row r="38">
@@ -3111,19 +3111,19 @@
         <v>27498</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>18021</v>
+        <v>18057</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>41729</v>
+        <v>41279</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.05960893352509541</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03906479553785457</v>
+        <v>0.03914357797586682</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.09045784634079007</v>
+        <v>0.08948202985026811</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -3132,19 +3132,19 @@
         <v>6906</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>2736</v>
+        <v>2933</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>14390</v>
+        <v>14310</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.02242606386382905</v>
+        <v>0.02242606386382904</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.00888578177050656</v>
+        <v>0.009525198540368427</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.04673251011124721</v>
+        <v>0.04647072782231919</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>30</v>
@@ -3153,19 +3153,19 @@
         <v>34404</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>23288</v>
+        <v>22971</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>49968</v>
+        <v>51644</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.04472451006969797</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.03027395424224847</v>
+        <v>0.02986170224557662</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.06495656307129526</v>
+        <v>0.06713596901614087</v>
       </c>
     </row>
     <row r="39">
@@ -3182,19 +3182,19 @@
         <v>21327</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>13410</v>
+        <v>13796</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>32465</v>
+        <v>31539</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04623194384724602</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02906930280253855</v>
+        <v>0.02990539699124812</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07037416832114031</v>
+        <v>0.06836789420190346</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>8</v>
@@ -3203,19 +3203,19 @@
         <v>9456</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>4072</v>
+        <v>3631</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>19853</v>
+        <v>20529</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.03070732031437145</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01322250978036325</v>
+        <v>0.01179236738621789</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.06447067407561484</v>
+        <v>0.0666673814040197</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>28</v>
@@ -3224,19 +3224,19 @@
         <v>30783</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>19740</v>
+        <v>20474</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>43660</v>
+        <v>45419</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04001738663974663</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0256621079295356</v>
+        <v>0.02661519554779482</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.05675645382273218</v>
+        <v>0.05904350333504544</v>
       </c>
     </row>
     <row r="40">
@@ -3269,16 +3269,16 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4047</v>
+        <v>4295</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.003889958433739539</v>
+        <v>0.003889958433739538</v>
       </c>
       <c r="O40" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01314184311304416</v>
+        <v>0.0139480844815588</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4140</v>
+        <v>4165</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.001557162991429584</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005382363357357989</v>
+        <v>0.005414003987701002</v>
       </c>
     </row>
     <row r="41">
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3412</v>
+        <v>3047</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.001429540617211379</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.007396016666597389</v>
+        <v>0.006605972760457055</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3355</v>
+        <v>3174</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0008572908665303634</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.004360933553311402</v>
+        <v>0.004126264325985392</v>
       </c>
     </row>
     <row r="42">
@@ -3379,19 +3379,19 @@
         <v>8033</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3948</v>
+        <v>3760</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>15772</v>
+        <v>15256</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01741332146122716</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.00855818225594455</v>
+        <v>0.008150028197245479</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03418938699235205</v>
+        <v>0.03307126397437978</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>5</v>
@@ -3400,19 +3400,19 @@
         <v>4089</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1590</v>
+        <v>1304</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>11600</v>
+        <v>11249</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01327917607877821</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.005163721597955403</v>
+        <v>0.004233609000579627</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03767047924043952</v>
+        <v>0.03652940628981897</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>14</v>
@@ -3421,19 +3421,19 @@
         <v>12122</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6532</v>
+        <v>6642</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>21562</v>
+        <v>21362</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.01575840964137247</v>
+        <v>0.01575840964137246</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.008491749098069903</v>
+        <v>0.008633991051395113</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02802992257923917</v>
+        <v>0.02777035083844148</v>
       </c>
     </row>
     <row r="43">
@@ -3525,19 +3525,19 @@
         <v>351699</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>313865</v>
+        <v>314638</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>391938</v>
+        <v>393141</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2102711713884199</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.187651166168025</v>
+        <v>0.1881134146452844</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.234328713646878</v>
+        <v>0.2350483824109751</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>521</v>
@@ -3546,19 +3546,19 @@
         <v>365973</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>338100</v>
+        <v>337845</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>392525</v>
+        <v>391855</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4047639016253123</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3739366568341251</v>
+        <v>0.3736538352065686</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.434130010433148</v>
+        <v>0.4333892271482844</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>859</v>
@@ -3567,19 +3567,19 @@
         <v>717672</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>659966</v>
+        <v>674547</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>760980</v>
+        <v>770932</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2785171321519571</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2561222360054872</v>
+        <v>0.2617809412619241</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2953240318678694</v>
+        <v>0.2991864070789695</v>
       </c>
     </row>
     <row r="45">
@@ -3596,19 +3596,19 @@
         <v>684819</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>639323</v>
+        <v>639748</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>731841</v>
+        <v>727593</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.4094346896149165</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.382233446876589</v>
+        <v>0.382488064093283</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.437547515125859</v>
+        <v>0.4350082202881795</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>396</v>
@@ -3617,19 +3617,19 @@
         <v>290144</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>263572</v>
+        <v>264372</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>316763</v>
+        <v>316225</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.320897590135988</v>
+        <v>0.3208975901359879</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.2915089331000998</v>
+        <v>0.2923931300004675</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.3503377452865236</v>
+        <v>0.3497426730812738</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1077</v>
@@ -3638,19 +3638,19 @@
         <v>974964</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>926811</v>
+        <v>926564</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>1027030</v>
+        <v>1027909</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.3783677216629688</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.3596803249838624</v>
+        <v>0.3595845516559409</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.3985737030475421</v>
+        <v>0.3989149752780309</v>
       </c>
     </row>
     <row r="46">
@@ -3667,19 +3667,19 @@
         <v>359318</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>323559</v>
+        <v>323435</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>400817</v>
+        <v>397415</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.214826474165437</v>
+        <v>0.2148264741654371</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1934469755591343</v>
+        <v>0.1933730302977586</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2396375158214717</v>
+        <v>0.237603830246391</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>172</v>
@@ -3688,19 +3688,19 @@
         <v>147412</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>127836</v>
+        <v>127601</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>170135</v>
+        <v>173493</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1630362557576519</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1413856945480666</v>
+        <v>0.1411262548764362</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1881684248551403</v>
+        <v>0.191882207799674</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>487</v>
@@ -3709,19 +3709,19 @@
         <v>506730</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>464884</v>
+        <v>459007</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>550805</v>
+        <v>547074</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1966536961439257</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.180414023807672</v>
+        <v>0.1781331866199548</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2137587376352942</v>
+        <v>0.2123107944644624</v>
       </c>
     </row>
     <row r="47">
@@ -3738,19 +3738,19 @@
         <v>115279</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>93056</v>
+        <v>91561</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>141865</v>
+        <v>139188</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.06892193484015509</v>
+        <v>0.0689219348401551</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.05563566142686358</v>
+        <v>0.05474187832391799</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.08481694569115693</v>
+        <v>0.08321693640385493</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>43</v>
@@ -3759,19 +3759,19 @@
         <v>36449</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>25872</v>
+        <v>25444</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>49892</v>
+        <v>48975</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.04031282309392393</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02861397905528913</v>
+        <v>0.02814108373775883</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.05518059773773687</v>
+        <v>0.05416639806946592</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>143</v>
@@ -3780,19 +3780,19 @@
         <v>151728</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>126165</v>
+        <v>128751</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>179715</v>
+        <v>181166</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.0588832238028076</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04896259108303236</v>
+        <v>0.04996622199315807</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.06974460593082754</v>
+        <v>0.07030767697546417</v>
       </c>
     </row>
     <row r="48">
@@ -3809,19 +3809,19 @@
         <v>73362</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>56209</v>
+        <v>54854</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>96938</v>
+        <v>98000</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.04386131115660632</v>
+        <v>0.04386131115660631</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03360577741538257</v>
+        <v>0.03279595300830863</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.05795636550689296</v>
+        <v>0.05859150598600831</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>30</v>
@@ -3830,19 +3830,19 @@
         <v>27966</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>18359</v>
+        <v>18960</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>40840</v>
+        <v>41378</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.03093057918135106</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.02030492278951095</v>
+        <v>0.02096963553644898</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04516925897345717</v>
+        <v>0.0457636116555819</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>89</v>
@@ -3851,19 +3851,19 @@
         <v>101329</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>79620</v>
+        <v>81643</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>124927</v>
+        <v>124105</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03932401957788131</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.03089920606719212</v>
+        <v>0.03168452292820136</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04848212320575585</v>
+        <v>0.04816329328196611</v>
       </c>
     </row>
     <row r="49">
@@ -3880,19 +3880,19 @@
         <v>55075</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>40225</v>
+        <v>41489</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>74587</v>
+        <v>74435</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.0329275750844608</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02404931161071296</v>
+        <v>0.0248048993473278</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04459357438548876</v>
+        <v>0.04450264895565707</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>26</v>
@@ -3901,19 +3901,19 @@
         <v>25710</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>17335</v>
+        <v>17301</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>38895</v>
+        <v>40647</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.02843468306530555</v>
+        <v>0.02843468306530556</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01917193080048829</v>
+        <v>0.01913437627409454</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.04301736764626221</v>
+        <v>0.04495482465758718</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>74</v>
@@ -3922,19 +3922,19 @@
         <v>80784</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>62887</v>
+        <v>64026</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>104788</v>
+        <v>105746</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.03135105480999804</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.02440551236397031</v>
+        <v>0.0248473132460808</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.04066649957496769</v>
+        <v>0.04103833664603607</v>
       </c>
     </row>
     <row r="50">
@@ -3951,19 +3951,19 @@
         <v>5682</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>2450</v>
+        <v>2390</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>10962</v>
+        <v>11335</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.00339692068255142</v>
+        <v>0.003396920682551421</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.001464968369948175</v>
+        <v>0.001429109011368573</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.006554039640688466</v>
+        <v>0.006777027302294038</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>6</v>
@@ -3972,19 +3972,19 @@
         <v>4875</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1719</v>
+        <v>2016</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>10077</v>
+        <v>10685</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.005392199098678801</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.00190152260306493</v>
+        <v>0.002230050992326487</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.01114501048426453</v>
+        <v>0.01181774810556111</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>14</v>
@@ -3993,19 +3993,19 @@
         <v>10557</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>6078</v>
+        <v>5934</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>18113</v>
+        <v>17632</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.00409704809776898</v>
+        <v>0.004097048097768981</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.00235861467508351</v>
+        <v>0.002302698365413743</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.007029447076320031</v>
+        <v>0.006842815249437167</v>
       </c>
     </row>
     <row r="51">
@@ -4022,19 +4022,19 @@
         <v>6811</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>2644</v>
+        <v>2780</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>14539</v>
+        <v>15051</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.004072086407229872</v>
+        <v>0.004072086407229873</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.001581017250056394</v>
+        <v>0.001662109649397314</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.008692493565067041</v>
+        <v>0.008998540047355884</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>0</v>
@@ -4059,16 +4059,16 @@
         <v>2509</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>15291</v>
+        <v>16530</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.002643223493767473</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.0009735929402089772</v>
+        <v>0.0009738536063184939</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.00593416764288508</v>
+        <v>0.006414949650279416</v>
       </c>
     </row>
     <row r="52">
@@ -4085,19 +4085,19 @@
         <v>20553</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>12740</v>
+        <v>13191</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>31372</v>
+        <v>31163</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.01228783666022304</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.007616683754732759</v>
+        <v>0.007886656711370567</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.01875618508999986</v>
+        <v>0.01863174889443967</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>7</v>
@@ -4106,19 +4106,19 @@
         <v>5635</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>2368</v>
+        <v>2514</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>12944</v>
+        <v>12451</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>0.006231968041788436</v>
+        <v>0.006231968041788437</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.002618525033077978</v>
+        <v>0.002780778044981141</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01431615009096035</v>
+        <v>0.01377026376070766</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>30</v>
@@ -4127,19 +4127,19 @@
         <v>26187</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>17187</v>
+        <v>17695</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>36624</v>
+        <v>37935</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.01016288025892497</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.006670165705510878</v>
+        <v>0.006867335059529469</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01421334324736214</v>
+        <v>0.01472192713846223</v>
       </c>
     </row>
     <row r="53">
